--- a/biology/Botanique/Schoenoplectus/Schoenoplectus.xlsx
+++ b/biology/Botanique/Schoenoplectus/Schoenoplectus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Schoenoplectus est un genre végétal de la famille des Cyperaceae. Les membres de ce genre sont généralement appelés « scirpes » ou « souchets ».
 </t>
@@ -511,9 +523,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Checklist of Selected Plant Families (WCSP)  (13 nov. 2010)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Checklist of Selected Plant Families (WCSP)  (13 nov. 2010) :
 Schoenoplectus acutus (Muhl. ex Bigelow) Á.Löve &amp; D.Löve (1954)
 Schoenoplectus americanus (Pers.) Volkart (1905)
 Schoenoplectus annamicus (Raymond) T.Koyama (1979)
@@ -566,7 +580,7 @@
 Schoenoplectus torreyi (Olney) Palla (1911)
 Schoenoplectus triqueter (L.) Palla (1888)
 Schoenoplectus × uzenensis (Ohwi ex T.Koyama) Hayas. &amp; H.Ohashi (2000)
-Selon ITIS      (13 nov. 2010)[2] :
+Selon ITIS      (13 nov. 2010) :
 Schoenoplectus acutus (Muhl. ex Bigelow) A.et D. Löve
 Schoenoplectus americanus (Pers.) Volk. ex Schinz &amp; R. Keller
 Schoenoplectus californicus (C.A. Mey.) Palla
